--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>28.5908435126609</v>
+        <v>0.1132936666666667</v>
       </c>
       <c r="H2">
-        <v>28.5908435126609</v>
+        <v>0.339881</v>
       </c>
       <c r="I2">
-        <v>0.9511336337341724</v>
+        <v>0.003561272005960765</v>
       </c>
       <c r="J2">
-        <v>0.9511336337341724</v>
+        <v>0.003622822250599326</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>3537.920406691168</v>
+        <v>15.65934698072622</v>
       </c>
       <c r="R2">
-        <v>3537.920406691168</v>
+        <v>140.934122826536</v>
       </c>
       <c r="S2">
-        <v>0.2009009801263773</v>
+        <v>0.0008010097226250231</v>
       </c>
       <c r="T2">
-        <v>0.2009009801263773</v>
+        <v>0.0008972277976451612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>28.5908435126609</v>
+        <v>0.1132936666666667</v>
       </c>
       <c r="H3">
-        <v>28.5908435126609</v>
+        <v>0.339881</v>
       </c>
       <c r="I3">
-        <v>0.9511336337341724</v>
+        <v>0.003561272005960765</v>
       </c>
       <c r="J3">
-        <v>0.9511336337341724</v>
+        <v>0.003622822250599326</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>3962.354111813022</v>
+        <v>16.75775679824333</v>
       </c>
       <c r="R3">
-        <v>3962.354111813022</v>
+        <v>150.81981118419</v>
       </c>
       <c r="S3">
-        <v>0.225002468446008</v>
+        <v>0.0008571957784254915</v>
       </c>
       <c r="T3">
-        <v>0.225002468446008</v>
+        <v>0.0009601629776814487</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>28.5908435126609</v>
+        <v>0.1132936666666667</v>
       </c>
       <c r="H4">
-        <v>28.5908435126609</v>
+        <v>0.339881</v>
       </c>
       <c r="I4">
-        <v>0.9511336337341724</v>
+        <v>0.003561272005960765</v>
       </c>
       <c r="J4">
-        <v>0.9511336337341724</v>
+        <v>0.003622822250599326</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>2038.524048414683</v>
+        <v>8.414617150623554</v>
       </c>
       <c r="R4">
-        <v>2038.524048414683</v>
+        <v>75.73155435561199</v>
       </c>
       <c r="S4">
-        <v>0.1157576859454345</v>
+        <v>0.0004304260042332972</v>
       </c>
       <c r="T4">
-        <v>0.1157576859454345</v>
+        <v>0.0004821291988340014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>28.5908435126609</v>
+        <v>0.1132936666666667</v>
       </c>
       <c r="H5">
-        <v>28.5908435126609</v>
+        <v>0.339881</v>
       </c>
       <c r="I5">
-        <v>0.9511336337341724</v>
+        <v>0.003561272005960765</v>
       </c>
       <c r="J5">
-        <v>0.9511336337341724</v>
+        <v>0.003622822250599326</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>2425.270380671553</v>
+        <v>9.613755423060113</v>
       </c>
       <c r="R5">
-        <v>2425.270380671553</v>
+        <v>86.52379880754101</v>
       </c>
       <c r="S5">
-        <v>0.1377190949878029</v>
+        <v>0.0004917645400084916</v>
       </c>
       <c r="T5">
-        <v>0.1377190949878029</v>
+        <v>0.0005508357798028319</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>28.5908435126609</v>
+        <v>0.1132936666666667</v>
       </c>
       <c r="H6">
-        <v>28.5908435126609</v>
+        <v>0.339881</v>
       </c>
       <c r="I6">
-        <v>0.9511336337341724</v>
+        <v>0.003561272005960765</v>
       </c>
       <c r="J6">
-        <v>0.9511336337341724</v>
+        <v>0.003622822250599326</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>4785.650691217049</v>
+        <v>19.1756436648785</v>
       </c>
       <c r="R6">
-        <v>4785.650691217049</v>
+        <v>115.053861989271</v>
       </c>
       <c r="S6">
-        <v>0.2717534042285498</v>
+        <v>0.0009808759606684616</v>
       </c>
       <c r="T6">
-        <v>0.2717534042285498</v>
+        <v>0.0007324664966358822</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.46891097253441</v>
+        <v>29.968401</v>
       </c>
       <c r="H7">
-        <v>1.46891097253441</v>
+        <v>89.905203</v>
       </c>
       <c r="I7">
-        <v>0.04886636626582767</v>
+        <v>0.9420264228777712</v>
       </c>
       <c r="J7">
-        <v>0.04886636626582767</v>
+        <v>0.9583076720177039</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>181.7676384063561</v>
+        <v>4142.204975122552</v>
       </c>
       <c r="R7">
-        <v>181.7676384063561</v>
+        <v>37279.84477610297</v>
       </c>
       <c r="S7">
-        <v>0.01032168407238042</v>
+        <v>0.2118828110944018</v>
       </c>
       <c r="T7">
-        <v>0.01032168407238042</v>
+        <v>0.2373343825766405</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.46891097253441</v>
+        <v>29.968401</v>
       </c>
       <c r="H8">
-        <v>1.46891097253441</v>
+        <v>89.905203</v>
       </c>
       <c r="I8">
-        <v>0.04886636626582767</v>
+        <v>0.9420264228777712</v>
       </c>
       <c r="J8">
-        <v>0.04886636626582767</v>
+        <v>0.9583076720177039</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>203.5737570782603</v>
+        <v>4432.75595508633</v>
       </c>
       <c r="R8">
-        <v>203.5737570782603</v>
+        <v>39894.80359577697</v>
       </c>
       <c r="S8">
-        <v>0.01155994556793363</v>
+        <v>0.2267451268828997</v>
       </c>
       <c r="T8">
-        <v>0.01155994556793363</v>
+        <v>0.2539819743425938</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.46891097253441</v>
+        <v>29.968401</v>
       </c>
       <c r="H9">
-        <v>1.46891097253441</v>
+        <v>89.905203</v>
       </c>
       <c r="I9">
-        <v>0.04886636626582767</v>
+        <v>0.9420264228777712</v>
       </c>
       <c r="J9">
-        <v>0.04886636626582767</v>
+        <v>0.9583076720177039</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>104.7331933793971</v>
+        <v>2225.831579564884</v>
       </c>
       <c r="R9">
-        <v>104.7331933793971</v>
+        <v>20032.48421608395</v>
       </c>
       <c r="S9">
-        <v>0.005947279413604679</v>
+        <v>0.1138561357859764</v>
       </c>
       <c r="T9">
-        <v>0.005947279413604679</v>
+        <v>0.1275326467010461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.46891097253441</v>
+        <v>29.968401</v>
       </c>
       <c r="H10">
-        <v>1.46891097253441</v>
+        <v>89.905203</v>
       </c>
       <c r="I10">
-        <v>0.04886636626582767</v>
+        <v>0.9420264228777712</v>
       </c>
       <c r="J10">
-        <v>0.04886636626582767</v>
+        <v>0.9583076720177039</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>124.6030489430493</v>
+        <v>2543.027215121087</v>
       </c>
       <c r="R10">
-        <v>124.6030489430493</v>
+        <v>22887.24493608979</v>
       </c>
       <c r="S10">
-        <v>0.00707559011560848</v>
+        <v>0.1300813837715702</v>
       </c>
       <c r="T10">
-        <v>0.00707559011560848</v>
+        <v>0.1457068874189404</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>29.968401</v>
+      </c>
+      <c r="H11">
+        <v>89.905203</v>
+      </c>
+      <c r="I11">
+        <v>0.9420264228777712</v>
+      </c>
+      <c r="J11">
+        <v>0.9583076720177039</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>169.2560955</v>
+      </c>
+      <c r="N11">
+        <v>338.512191</v>
+      </c>
+      <c r="O11">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P11">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q11">
+        <v>5072.334541638296</v>
+      </c>
+      <c r="R11">
+        <v>30434.00724982977</v>
+      </c>
+      <c r="S11">
+        <v>0.2594609653429231</v>
+      </c>
+      <c r="T11">
+        <v>0.1937517809784831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1095486666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.328646</v>
+      </c>
+      <c r="I12">
+        <v>0.003443551712719986</v>
+      </c>
+      <c r="J12">
+        <v>0.003503067371728534</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N12">
+        <v>414.657256</v>
+      </c>
+      <c r="O12">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P12">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q12">
+        <v>15.14171650615289</v>
+      </c>
+      <c r="R12">
+        <v>136.275448555376</v>
+      </c>
+      <c r="S12">
+        <v>0.000774531795839789</v>
+      </c>
+      <c r="T12">
+        <v>0.0008675693162750835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1095486666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.328646</v>
+      </c>
+      <c r="I13">
+        <v>0.003443551712719986</v>
+      </c>
+      <c r="J13">
+        <v>0.003503067371728534</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>147.91433</v>
+      </c>
+      <c r="N13">
+        <v>443.74299</v>
+      </c>
+      <c r="O13">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P13">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q13">
+        <v>16.20381763239333</v>
+      </c>
+      <c r="R13">
+        <v>145.83435869154</v>
+      </c>
+      <c r="S13">
+        <v>0.0008288605829582239</v>
+      </c>
+      <c r="T13">
+        <v>0.0009284241306901456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1095486666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.328646</v>
+      </c>
+      <c r="I14">
+        <v>0.003443551712719986</v>
+      </c>
+      <c r="J14">
+        <v>0.003503067371728534</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N14">
+        <v>222.817852</v>
+      </c>
+      <c r="O14">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P14">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q14">
+        <v>8.136466198710222</v>
+      </c>
+      <c r="R14">
+        <v>73.228195788392</v>
+      </c>
+      <c r="S14">
+        <v>0.0004161979769014926</v>
+      </c>
+      <c r="T14">
+        <v>0.0004661920868774637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1095486666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.328646</v>
+      </c>
+      <c r="I15">
+        <v>0.003443551712719986</v>
+      </c>
+      <c r="J15">
+        <v>0.003503067371728534</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N15">
+        <v>254.570861</v>
+      </c>
+      <c r="O15">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P15">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q15">
+        <v>9.295966131578446</v>
+      </c>
+      <c r="R15">
+        <v>83.66369518420601</v>
+      </c>
+      <c r="S15">
+        <v>0.0004755089252286263</v>
+      </c>
+      <c r="T15">
+        <v>0.0005326275246014973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1095486666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.328646</v>
+      </c>
+      <c r="I16">
+        <v>0.003443551712719986</v>
+      </c>
+      <c r="J16">
+        <v>0.003503067371728534</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>169.2560955</v>
+      </c>
+      <c r="N16">
+        <v>338.512191</v>
+      </c>
+      <c r="O16">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P16">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q16">
+        <v>18.541779587231</v>
+      </c>
+      <c r="R16">
+        <v>111.250677523386</v>
+      </c>
+      <c r="S16">
+        <v>0.0009484524317918544</v>
+      </c>
+      <c r="T16">
+        <v>0.0007082543132843441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.6214535</v>
+      </c>
+      <c r="H17">
+        <v>3.242907</v>
+      </c>
+      <c r="I17">
+        <v>0.05096875340354803</v>
+      </c>
+      <c r="J17">
+        <v>0.03456643835996807</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N17">
+        <v>414.657256</v>
+      </c>
+      <c r="O17">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P17">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q17">
+        <v>224.115819680532</v>
+      </c>
+      <c r="R17">
+        <v>1344.694918083192</v>
+      </c>
+      <c r="S17">
+        <v>0.01146401256573071</v>
+      </c>
+      <c r="T17">
+        <v>0.008560720680408957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.46891097253441</v>
-      </c>
-      <c r="H11">
-        <v>1.46891097253441</v>
-      </c>
-      <c r="I11">
-        <v>0.04886636626582767</v>
-      </c>
-      <c r="J11">
-        <v>0.04886636626582767</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N11">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O11">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P11">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q11">
-        <v>245.8722425566998</v>
-      </c>
-      <c r="R11">
-        <v>245.8722425566998</v>
-      </c>
-      <c r="S11">
-        <v>0.01396186709630046</v>
-      </c>
-      <c r="T11">
-        <v>0.01396186709630046</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.6214535</v>
+      </c>
+      <c r="H18">
+        <v>3.242907</v>
+      </c>
+      <c r="I18">
+        <v>0.05096875340354803</v>
+      </c>
+      <c r="J18">
+        <v>0.03456643835996807</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>147.91433</v>
+      </c>
+      <c r="N18">
+        <v>443.74299</v>
+      </c>
+      <c r="O18">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P18">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q18">
+        <v>239.8362080786549</v>
+      </c>
+      <c r="R18">
+        <v>1439.01724847193</v>
+      </c>
+      <c r="S18">
+        <v>0.01226814468987591</v>
+      </c>
+      <c r="T18">
+        <v>0.009161204190478472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.6214535</v>
+      </c>
+      <c r="H19">
+        <v>3.242907</v>
+      </c>
+      <c r="I19">
+        <v>0.05096875340354803</v>
+      </c>
+      <c r="J19">
+        <v>0.03456643835996807</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N19">
+        <v>222.817852</v>
+      </c>
+      <c r="O19">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P19">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q19">
+        <v>120.429595329294</v>
+      </c>
+      <c r="R19">
+        <v>722.5775719757639</v>
+      </c>
+      <c r="S19">
+        <v>0.00616023623905215</v>
+      </c>
+      <c r="T19">
+        <v>0.004600139913096569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.6214535</v>
+      </c>
+      <c r="H20">
+        <v>3.242907</v>
+      </c>
+      <c r="I20">
+        <v>0.05096875340354803</v>
+      </c>
+      <c r="J20">
+        <v>0.03456643835996807</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N20">
+        <v>254.570861</v>
+      </c>
+      <c r="O20">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P20">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q20">
+        <v>137.5916045221545</v>
+      </c>
+      <c r="R20">
+        <v>825.5496271329271</v>
+      </c>
+      <c r="S20">
+        <v>0.007038110408401693</v>
+      </c>
+      <c r="T20">
+        <v>0.005255690097925633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.6214535</v>
+      </c>
+      <c r="H21">
+        <v>3.242907</v>
+      </c>
+      <c r="I21">
+        <v>0.05096875340354803</v>
+      </c>
+      <c r="J21">
+        <v>0.03456643835996807</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>169.2560955</v>
+      </c>
+      <c r="N21">
+        <v>338.512191</v>
+      </c>
+      <c r="O21">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P21">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q21">
+        <v>274.4408884448093</v>
+      </c>
+      <c r="R21">
+        <v>1097.763553779237</v>
+      </c>
+      <c r="S21">
+        <v>0.01403824950048758</v>
+      </c>
+      <c r="T21">
+        <v>0.006988683478058436</v>
       </c>
     </row>
   </sheetData>
